--- a/Code/Results/Cases/Case_2_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001876352612315</v>
+        <v>1.028588742700773</v>
       </c>
       <c r="D2">
-        <v>1.026262952320716</v>
+        <v>1.040369101480999</v>
       </c>
       <c r="E2">
-        <v>1.025399719864455</v>
+        <v>1.0497477325152</v>
       </c>
       <c r="F2">
-        <v>1.033499085997045</v>
+        <v>1.05431897958277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051195767408294</v>
+        <v>1.037405673360392</v>
       </c>
       <c r="J2">
-        <v>1.024001086768485</v>
+        <v>1.033740225454385</v>
       </c>
       <c r="K2">
-        <v>1.037368137039503</v>
+        <v>1.043151645741665</v>
       </c>
       <c r="L2">
-        <v>1.036516183730561</v>
+        <v>1.052503929197246</v>
       </c>
       <c r="M2">
-        <v>1.044510648537948</v>
+        <v>1.057062518321465</v>
       </c>
       <c r="N2">
-        <v>1.011962867184832</v>
+        <v>1.015265176555708</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005900079192364</v>
+        <v>1.02943719451359</v>
       </c>
       <c r="D3">
-        <v>1.029391300238788</v>
+        <v>1.041042280958627</v>
       </c>
       <c r="E3">
-        <v>1.029137099382618</v>
+        <v>1.050611502892757</v>
       </c>
       <c r="F3">
-        <v>1.037193851953268</v>
+        <v>1.05514947515687</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052376244685163</v>
+        <v>1.037573137457105</v>
       </c>
       <c r="J3">
-        <v>1.026231184216796</v>
+        <v>1.034229867792003</v>
       </c>
       <c r="K3">
-        <v>1.039661433670219</v>
+        <v>1.043635595653682</v>
       </c>
       <c r="L3">
-        <v>1.039410260006367</v>
+        <v>1.053179874900278</v>
       </c>
       <c r="M3">
-        <v>1.047371960425109</v>
+        <v>1.057706189284808</v>
       </c>
       <c r="N3">
-        <v>1.012704436587696</v>
+        <v>1.015427485604379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008453143251208</v>
+        <v>1.029986595296295</v>
       </c>
       <c r="D4">
-        <v>1.031376706366112</v>
+        <v>1.041477900858751</v>
       </c>
       <c r="E4">
-        <v>1.031516564220273</v>
+        <v>1.051171463629327</v>
       </c>
       <c r="F4">
-        <v>1.039542510843483</v>
+        <v>1.055687436286715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053111514035746</v>
+        <v>1.037679865864187</v>
       </c>
       <c r="J4">
-        <v>1.027643060897076</v>
+        <v>1.034546448861465</v>
       </c>
       <c r="K4">
-        <v>1.041110634942716</v>
+        <v>1.043948090984848</v>
       </c>
       <c r="L4">
-        <v>1.041248929224865</v>
+        <v>1.05361765714817</v>
       </c>
       <c r="M4">
-        <v>1.049186013875414</v>
+        <v>1.058122612231571</v>
       </c>
       <c r="N4">
-        <v>1.013173889376203</v>
+        <v>1.015532407264997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009514732410814</v>
+        <v>1.030217656656382</v>
       </c>
       <c r="D5">
-        <v>1.032202320407859</v>
+        <v>1.041661040338195</v>
       </c>
       <c r="E5">
-        <v>1.032507875167289</v>
+        <v>1.051407119131885</v>
       </c>
       <c r="F5">
-        <v>1.040520103033568</v>
+        <v>1.055913730927158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053413899086034</v>
+        <v>1.03772434290609</v>
       </c>
       <c r="J5">
-        <v>1.02822935452985</v>
+        <v>1.034679478439721</v>
       </c>
       <c r="K5">
-        <v>1.041711767982324</v>
+        <v>1.044079306408948</v>
       </c>
       <c r="L5">
-        <v>1.042013998949083</v>
+        <v>1.053801795076136</v>
       </c>
       <c r="M5">
-        <v>1.049939923950668</v>
+        <v>1.058297656851525</v>
       </c>
       <c r="N5">
-        <v>1.013368823330943</v>
+        <v>1.015576491213385</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009692301542657</v>
+        <v>1.030256458302288</v>
       </c>
       <c r="D6">
-        <v>1.032340420927319</v>
+        <v>1.041691790496758</v>
       </c>
       <c r="E6">
-        <v>1.032673800117405</v>
+        <v>1.051446701218169</v>
       </c>
       <c r="F6">
-        <v>1.040683679671615</v>
+        <v>1.055951734701026</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053464280041132</v>
+        <v>1.037731787809563</v>
       </c>
       <c r="J6">
-        <v>1.028327375680408</v>
+        <v>1.034701811073503</v>
       </c>
       <c r="K6">
-        <v>1.041812230856959</v>
+        <v>1.044101328773494</v>
       </c>
       <c r="L6">
-        <v>1.042142000389563</v>
+        <v>1.053832718127972</v>
       </c>
       <c r="M6">
-        <v>1.050066004244737</v>
+        <v>1.058327046418802</v>
       </c>
       <c r="N6">
-        <v>1.013401413259177</v>
+        <v>1.01558389161703</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008467373808298</v>
+        <v>1.029989682384845</v>
       </c>
       <c r="D7">
-        <v>1.031387773502147</v>
+        <v>1.041480347960528</v>
       </c>
       <c r="E7">
-        <v>1.031529845217523</v>
+        <v>1.05117461149747</v>
       </c>
       <c r="F7">
-        <v>1.039555611540067</v>
+        <v>1.055690459515598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053115580778346</v>
+        <v>1.037680461708327</v>
       </c>
       <c r="J7">
-        <v>1.027650923250514</v>
+        <v>1.034548226650793</v>
       </c>
       <c r="K7">
-        <v>1.041118698924604</v>
+        <v>1.043949844912812</v>
       </c>
       <c r="L7">
-        <v>1.041259182893139</v>
+        <v>1.053620117239686</v>
       </c>
       <c r="M7">
-        <v>1.049196121607131</v>
+        <v>1.058124951265307</v>
       </c>
       <c r="N7">
-        <v>1.01317650353516</v>
+        <v>1.015532996416103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003246894860833</v>
+        <v>1.028875398144239</v>
       </c>
       <c r="D8">
-        <v>1.027328388374389</v>
+        <v>1.040596598824161</v>
       </c>
       <c r="E8">
-        <v>1.026671011194523</v>
+        <v>1.050039430593835</v>
       </c>
       <c r="F8">
-        <v>1.034756648795518</v>
+        <v>1.054599529281014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051600706438878</v>
+        <v>1.037462606047963</v>
       </c>
       <c r="J8">
-        <v>1.024761329024221</v>
+        <v>1.033905753479453</v>
       </c>
       <c r="K8">
-        <v>1.038150478517629</v>
+        <v>1.043315333185388</v>
       </c>
       <c r="L8">
-        <v>1.037501430784518</v>
+        <v>1.052732284431967</v>
       </c>
       <c r="M8">
-        <v>1.045485533826788</v>
+        <v>1.057280064559352</v>
       </c>
       <c r="N8">
-        <v>1.012215675244503</v>
+        <v>1.015320050761297</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936423597915824</v>
+        <v>1.026914982427612</v>
       </c>
       <c r="D9">
-        <v>1.019865987747104</v>
+        <v>1.039039610680459</v>
       </c>
       <c r="E9">
-        <v>1.017797792880538</v>
+        <v>1.04804716932541</v>
       </c>
       <c r="F9">
-        <v>1.025963885136397</v>
+        <v>1.052681656573718</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048706749751676</v>
+        <v>1.037066254795009</v>
       </c>
       <c r="J9">
-        <v>1.0194216376723</v>
+        <v>1.032771769349525</v>
       </c>
       <c r="K9">
-        <v>1.032644770794098</v>
+        <v>1.042192304635835</v>
       </c>
       <c r="L9">
-        <v>1.030608565221806</v>
+        <v>1.051170942098223</v>
       </c>
       <c r="M9">
-        <v>1.038649307372521</v>
+        <v>1.05579075996786</v>
       </c>
       <c r="N9">
-        <v>1.010439955710685</v>
+        <v>1.014944042010978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9869398757121309</v>
+        <v>1.025610206293133</v>
       </c>
       <c r="D10">
-        <v>1.014665801935694</v>
+        <v>1.038001918925971</v>
       </c>
       <c r="E10">
-        <v>1.011652914801249</v>
+        <v>1.046724530486361</v>
       </c>
       <c r="F10">
-        <v>1.019855348353971</v>
+        <v>1.051406201157186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046618040764498</v>
+        <v>1.036793692742658</v>
       </c>
       <c r="J10">
-        <v>1.01568141701377</v>
+        <v>1.032014596685644</v>
       </c>
       <c r="K10">
-        <v>1.028775215118486</v>
+        <v>1.041440380095267</v>
       </c>
       <c r="L10">
-        <v>1.025814912160291</v>
+        <v>1.050132244151938</v>
       </c>
       <c r="M10">
-        <v>1.033875129483762</v>
+        <v>1.054797643411545</v>
       </c>
       <c r="N10">
-        <v>1.009196119884705</v>
+        <v>1.014692875987841</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839601373298427</v>
+        <v>1.02504575594942</v>
       </c>
       <c r="D11">
-        <v>1.012356490951541</v>
+        <v>1.037552680159951</v>
       </c>
       <c r="E11">
-        <v>1.008932914754896</v>
+        <v>1.046153148828079</v>
       </c>
       <c r="F11">
-        <v>1.017146866200086</v>
+        <v>1.050854679572125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045673769407064</v>
+        <v>1.036673705650743</v>
       </c>
       <c r="J11">
-        <v>1.014015759672257</v>
+        <v>1.031686466581431</v>
       </c>
       <c r="K11">
-        <v>1.02704908439519</v>
+        <v>1.041114037199408</v>
       </c>
       <c r="L11">
-        <v>1.023688312947494</v>
+        <v>1.049683016612916</v>
       </c>
       <c r="M11">
-        <v>1.031752503786177</v>
+        <v>1.054367574024509</v>
       </c>
       <c r="N11">
-        <v>1.008642214542765</v>
+        <v>1.014584006511253</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.982841093061809</v>
+        <v>1.024836174455366</v>
       </c>
       <c r="D12">
-        <v>1.011489679137416</v>
+        <v>1.037385827951234</v>
       </c>
       <c r="E12">
-        <v>1.007913252021539</v>
+        <v>1.045941113834292</v>
       </c>
       <c r="F12">
-        <v>1.01613083691617</v>
+        <v>1.05064993579003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045316852763181</v>
+        <v>1.036628842561584</v>
       </c>
       <c r="J12">
-        <v>1.013389829979737</v>
+        <v>1.031564545147692</v>
       </c>
       <c r="K12">
-        <v>1.026400016584942</v>
+        <v>1.040992706887443</v>
       </c>
       <c r="L12">
-        <v>1.022890400868829</v>
+        <v>1.049516235486751</v>
       </c>
       <c r="M12">
-        <v>1.03095538606507</v>
+        <v>1.054207822151726</v>
       </c>
       <c r="N12">
-        <v>1.008434070244341</v>
+        <v>1.014543550990046</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.983081695493854</v>
+        <v>1.024881126731874</v>
       </c>
       <c r="D13">
-        <v>1.011676028199073</v>
+        <v>1.037421617606213</v>
       </c>
       <c r="E13">
-        <v>1.008132402781436</v>
+        <v>1.045986586908371</v>
       </c>
       <c r="F13">
-        <v>1.016349237656818</v>
+        <v>1.050693848752234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045393695012244</v>
+        <v>1.036638479161997</v>
       </c>
       <c r="J13">
-        <v>1.013524426268811</v>
+        <v>1.031590699469002</v>
       </c>
       <c r="K13">
-        <v>1.026539606716129</v>
+        <v>1.041018737699325</v>
       </c>
       <c r="L13">
-        <v>1.02306192349873</v>
+        <v>1.049552006870039</v>
       </c>
       <c r="M13">
-        <v>1.03112676934299</v>
+        <v>1.054242089669854</v>
       </c>
       <c r="N13">
-        <v>1.008478828114613</v>
+        <v>1.01455222957893</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838678899555885</v>
+        <v>1.025028430227438</v>
       </c>
       <c r="D14">
-        <v>1.01228502650887</v>
+        <v>1.037538887786729</v>
       </c>
       <c r="E14">
-        <v>1.008848822126699</v>
+        <v>1.046135617826332</v>
       </c>
       <c r="F14">
-        <v>1.017063087135517</v>
+        <v>1.050837753012364</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045644393592507</v>
+        <v>1.036670003257623</v>
       </c>
       <c r="J14">
-        <v>1.01396416943822</v>
+        <v>1.031676389312738</v>
       </c>
       <c r="K14">
-        <v>1.026995595362538</v>
+        <v>1.041104010275608</v>
       </c>
       <c r="L14">
-        <v>1.023622522543344</v>
+        <v>1.049669228751735</v>
       </c>
       <c r="M14">
-        <v>1.03168679301861</v>
+        <v>1.054354368976903</v>
       </c>
       <c r="N14">
-        <v>1.008625058801885</v>
+        <v>1.014580662780465</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.984350650522129</v>
+        <v>1.025119199481642</v>
       </c>
       <c r="D15">
-        <v>1.012659042102268</v>
+        <v>1.037611143864949</v>
       </c>
       <c r="E15">
-        <v>1.009288981478138</v>
+        <v>1.046227467461332</v>
       </c>
       <c r="F15">
-        <v>1.017501577315356</v>
+        <v>1.050926432588613</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045798033630585</v>
+        <v>1.036689387288253</v>
       </c>
       <c r="J15">
-        <v>1.014234142275182</v>
+        <v>1.031729180480294</v>
       </c>
       <c r="K15">
-        <v>1.02727548792926</v>
+        <v>1.041156534719193</v>
       </c>
       <c r="L15">
-        <v>1.023966855456124</v>
+        <v>1.049741463931124</v>
       </c>
       <c r="M15">
-        <v>1.032030680747108</v>
+        <v>1.05442354735391</v>
       </c>
       <c r="N15">
-        <v>1.008714835400223</v>
+        <v>1.014598179233722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.987135948359275</v>
+        <v>1.025647678213917</v>
       </c>
       <c r="D16">
-        <v>1.0148178180904</v>
+        <v>1.038031735440512</v>
       </c>
       <c r="E16">
-        <v>1.011832147815944</v>
+        <v>1.046762479375989</v>
       </c>
       <c r="F16">
-        <v>1.020033727169792</v>
+        <v>1.051442819978722</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046679853834825</v>
+        <v>1.036801614540814</v>
       </c>
       <c r="J16">
-        <v>1.015790964234542</v>
+        <v>1.032036368024536</v>
       </c>
       <c r="K16">
-        <v>1.028888681233045</v>
+        <v>1.04146202261434</v>
       </c>
       <c r="L16">
-        <v>1.025954945497972</v>
+        <v>1.050162069317522</v>
       </c>
       <c r="M16">
-        <v>1.034014804189653</v>
+        <v>1.054826184920082</v>
       </c>
       <c r="N16">
-        <v>1.00923254982784</v>
+        <v>1.014700098952691</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9888619329980901</v>
+        <v>1.025979320877177</v>
       </c>
       <c r="D17">
-        <v>1.016156281515931</v>
+        <v>1.038295586390959</v>
       </c>
       <c r="E17">
-        <v>1.01341125266766</v>
+        <v>1.047098435498968</v>
       </c>
       <c r="F17">
-        <v>1.021604784848336</v>
+        <v>1.051766940670181</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047222200800728</v>
+        <v>1.036871485975149</v>
       </c>
       <c r="J17">
-        <v>1.016754963412389</v>
+        <v>1.03222898736589</v>
       </c>
       <c r="K17">
-        <v>1.02988684101017</v>
+        <v>1.041653446018253</v>
       </c>
       <c r="L17">
-        <v>1.02718815038829</v>
+        <v>1.050426048418421</v>
       </c>
       <c r="M17">
-        <v>1.035244319145667</v>
+        <v>1.055078738321232</v>
       </c>
       <c r="N17">
-        <v>1.009553130466129</v>
+        <v>1.014764000559165</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9898612330401084</v>
+        <v>1.026172813119937</v>
       </c>
       <c r="D18">
-        <v>1.016931454075608</v>
+        <v>1.03844949461846</v>
       </c>
       <c r="E18">
-        <v>1.014326633966792</v>
+        <v>1.047294521194896</v>
       </c>
       <c r="F18">
-        <v>1.022515066181454</v>
+        <v>1.051956067896676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047534711143365</v>
+        <v>1.036912051062789</v>
       </c>
       <c r="J18">
-        <v>1.017312819545395</v>
+        <v>1.032341312903192</v>
       </c>
       <c r="K18">
-        <v>1.030464191380579</v>
+        <v>1.041765027152689</v>
       </c>
       <c r="L18">
-        <v>1.027902569939643</v>
+        <v>1.050580074530041</v>
       </c>
       <c r="M18">
-        <v>1.035956156993745</v>
+        <v>1.055226044158681</v>
       </c>
       <c r="N18">
-        <v>1.009738648877815</v>
+        <v>1.014801262361008</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9902007243040652</v>
+        <v>1.026238797528828</v>
       </c>
       <c r="D19">
-        <v>1.017194840913781</v>
+        <v>1.03850197472334</v>
       </c>
       <c r="E19">
-        <v>1.014637804057235</v>
+        <v>1.047361403034775</v>
       </c>
       <c r="F19">
-        <v>1.02282442873923</v>
+        <v>1.052020567737777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047640624660254</v>
+        <v>1.036925850501645</v>
       </c>
       <c r="J19">
-        <v>1.017502291817042</v>
+        <v>1.032379608552058</v>
       </c>
       <c r="K19">
-        <v>1.03066023768722</v>
+        <v>1.041803061030312</v>
       </c>
       <c r="L19">
-        <v>1.028145349711417</v>
+        <v>1.05063260215409</v>
       </c>
       <c r="M19">
-        <v>1.03619798396977</v>
+        <v>1.055276270867556</v>
       </c>
       <c r="N19">
-        <v>1.00980165925946</v>
+        <v>1.014813965806906</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9886775246343393</v>
+        <v>1.025943733504845</v>
       </c>
       <c r="D20">
-        <v>1.01601325176183</v>
+        <v>1.038267276796148</v>
       </c>
       <c r="E20">
-        <v>1.013242420633256</v>
+        <v>1.047062377315679</v>
       </c>
       <c r="F20">
-        <v>1.021436858290108</v>
+        <v>1.05173215801182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047164409716029</v>
+        <v>1.036864009051064</v>
       </c>
       <c r="J20">
-        <v>1.016651995583125</v>
+        <v>1.032208323821173</v>
       </c>
       <c r="K20">
-        <v>1.029780252687296</v>
+        <v>1.04163291562915</v>
       </c>
       <c r="L20">
-        <v>1.027056347218686</v>
+        <v>1.050397720614186</v>
       </c>
       <c r="M20">
-        <v>1.035112956369583</v>
+        <v>1.055051642163726</v>
       </c>
       <c r="N20">
-        <v>1.009518888024196</v>
+        <v>1.014757145648466</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9836367180091227</v>
+        <v>1.024985050785953</v>
       </c>
       <c r="D21">
-        <v>1.012105944131264</v>
+        <v>1.037504354211312</v>
       </c>
       <c r="E21">
-        <v>1.008638115765995</v>
+        <v>1.046091726355846</v>
       </c>
       <c r="F21">
-        <v>1.016853155430423</v>
+        <v>1.050795373580428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045570741043105</v>
+        <v>1.036660728321397</v>
       </c>
       <c r="J21">
-        <v>1.013834878148393</v>
+        <v>1.031651156865151</v>
       </c>
       <c r="K21">
-        <v>1.026861538867026</v>
+        <v>1.041078902709081</v>
       </c>
       <c r="L21">
-        <v>1.023457663801183</v>
+        <v>1.049634707553853</v>
       </c>
       <c r="M21">
-        <v>1.031522122621549</v>
+        <v>1.054321305643686</v>
       </c>
       <c r="N21">
-        <v>1.008582064557507</v>
+        <v>1.014572290364819</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9803962441768829</v>
+        <v>1.024382755337576</v>
       </c>
       <c r="D22">
-        <v>1.009596810750377</v>
+        <v>1.037024762566438</v>
       </c>
       <c r="E22">
-        <v>1.005688970388942</v>
+        <v>1.045482606839394</v>
       </c>
       <c r="F22">
-        <v>1.013913226450981</v>
+        <v>1.050207051453715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044532927100016</v>
+        <v>1.036531213939039</v>
       </c>
       <c r="J22">
-        <v>1.012021648313786</v>
+        <v>1.031300617064637</v>
       </c>
       <c r="K22">
-        <v>1.024980520476652</v>
+        <v>1.040729925287514</v>
       </c>
       <c r="L22">
-        <v>1.021148563864698</v>
+        <v>1.049155446045356</v>
       </c>
       <c r="M22">
-        <v>1.02921400817061</v>
+        <v>1.053862086197133</v>
       </c>
       <c r="N22">
-        <v>1.007979112328977</v>
+        <v>1.014455968962205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9821210291078402</v>
+        <v>1.024701998864334</v>
       </c>
       <c r="D23">
-        <v>1.01093205406137</v>
+        <v>1.037278994238364</v>
       </c>
       <c r="E23">
-        <v>1.007257661352867</v>
+        <v>1.04580540136803</v>
       </c>
       <c r="F23">
-        <v>1.015477389812246</v>
+        <v>1.050518867882337</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045086551513299</v>
+        <v>1.036600033184309</v>
       </c>
       <c r="J23">
-        <v>1.012986962310021</v>
+        <v>1.031486465957705</v>
       </c>
       <c r="K23">
-        <v>1.025982142513532</v>
+        <v>1.040914985751175</v>
       </c>
       <c r="L23">
-        <v>1.02237718782075</v>
+        <v>1.049409466097002</v>
       </c>
       <c r="M23">
-        <v>1.030442488248714</v>
+        <v>1.054105529237551</v>
       </c>
       <c r="N23">
-        <v>1.008300103899429</v>
+        <v>1.014517642056757</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9887608737777659</v>
+        <v>1.025959813750086</v>
       </c>
       <c r="D24">
-        <v>1.016077897814937</v>
+        <v>1.03828006865762</v>
       </c>
       <c r="E24">
-        <v>1.013318726095961</v>
+        <v>1.047078670060783</v>
       </c>
       <c r="F24">
-        <v>1.021512755861476</v>
+        <v>1.051747874572244</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0471905348465</v>
+        <v>1.036867388137558</v>
       </c>
       <c r="J24">
-        <v>1.016698535975904</v>
+        <v>1.032217660868243</v>
       </c>
       <c r="K24">
-        <v>1.029828430357139</v>
+        <v>1.041642192653655</v>
       </c>
       <c r="L24">
-        <v>1.027115918478</v>
+        <v>1.050410520570402</v>
       </c>
       <c r="M24">
-        <v>1.03517232996018</v>
+        <v>1.055063885764388</v>
       </c>
       <c r="N24">
-        <v>1.00953436524806</v>
+        <v>1.014760243121344</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9961760739357519</v>
+        <v>1.027421421142242</v>
       </c>
       <c r="D25">
-        <v>1.021833568139877</v>
+        <v>1.039442084154535</v>
       </c>
       <c r="E25">
-        <v>1.020130625818458</v>
+        <v>1.048561248861159</v>
       </c>
       <c r="F25">
-        <v>1.028278930838875</v>
+        <v>1.05317692966236</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049482353748923</v>
+        <v>1.037170192641684</v>
       </c>
       <c r="J25">
-        <v>1.020832817319832</v>
+        <v>1.033065145114089</v>
       </c>
       <c r="K25">
-        <v>1.034102143687941</v>
+        <v>1.042483211222189</v>
       </c>
       <c r="L25">
-        <v>1.03242427520711</v>
+        <v>1.051574205930246</v>
       </c>
       <c r="M25">
-        <v>1.040453559092346</v>
+        <v>1.056175831244735</v>
       </c>
       <c r="N25">
-        <v>1.010909256896998</v>
+        <v>1.015041338102859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028588742700773</v>
+        <v>1.001876352612314</v>
       </c>
       <c r="D2">
-        <v>1.040369101480999</v>
+        <v>1.026262952320715</v>
       </c>
       <c r="E2">
-        <v>1.0497477325152</v>
+        <v>1.025399719864454</v>
       </c>
       <c r="F2">
-        <v>1.05431897958277</v>
+        <v>1.033499085997045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037405673360392</v>
+        <v>1.051195767408294</v>
       </c>
       <c r="J2">
-        <v>1.033740225454385</v>
+        <v>1.024001086768485</v>
       </c>
       <c r="K2">
-        <v>1.043151645741665</v>
+        <v>1.037368137039503</v>
       </c>
       <c r="L2">
-        <v>1.052503929197246</v>
+        <v>1.036516183730561</v>
       </c>
       <c r="M2">
-        <v>1.057062518321465</v>
+        <v>1.044510648537947</v>
       </c>
       <c r="N2">
-        <v>1.015265176555708</v>
+        <v>1.011962867184832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02943719451359</v>
+        <v>1.005900079192364</v>
       </c>
       <c r="D3">
-        <v>1.041042280958627</v>
+        <v>1.029391300238788</v>
       </c>
       <c r="E3">
-        <v>1.050611502892757</v>
+        <v>1.029137099382619</v>
       </c>
       <c r="F3">
-        <v>1.05514947515687</v>
+        <v>1.037193851953269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037573137457105</v>
+        <v>1.052376244685163</v>
       </c>
       <c r="J3">
-        <v>1.034229867792003</v>
+        <v>1.026231184216796</v>
       </c>
       <c r="K3">
-        <v>1.043635595653682</v>
+        <v>1.039661433670219</v>
       </c>
       <c r="L3">
-        <v>1.053179874900278</v>
+        <v>1.039410260006367</v>
       </c>
       <c r="M3">
-        <v>1.057706189284808</v>
+        <v>1.047371960425109</v>
       </c>
       <c r="N3">
-        <v>1.015427485604379</v>
+        <v>1.012704436587696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029986595296295</v>
+        <v>1.008453143251208</v>
       </c>
       <c r="D4">
-        <v>1.041477900858751</v>
+        <v>1.031376706366113</v>
       </c>
       <c r="E4">
-        <v>1.051171463629327</v>
+        <v>1.031516564220274</v>
       </c>
       <c r="F4">
-        <v>1.055687436286715</v>
+        <v>1.039542510843483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037679865864187</v>
+        <v>1.053111514035746</v>
       </c>
       <c r="J4">
-        <v>1.034546448861465</v>
+        <v>1.027643060897077</v>
       </c>
       <c r="K4">
-        <v>1.043948090984848</v>
+        <v>1.041110634942717</v>
       </c>
       <c r="L4">
-        <v>1.05361765714817</v>
+        <v>1.041248929224866</v>
       </c>
       <c r="M4">
-        <v>1.058122612231571</v>
+        <v>1.049186013875415</v>
       </c>
       <c r="N4">
-        <v>1.015532407264997</v>
+        <v>1.013173889376203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030217656656382</v>
+        <v>1.009514732410814</v>
       </c>
       <c r="D5">
-        <v>1.041661040338195</v>
+        <v>1.032202320407859</v>
       </c>
       <c r="E5">
-        <v>1.051407119131885</v>
+        <v>1.032507875167289</v>
       </c>
       <c r="F5">
-        <v>1.055913730927158</v>
+        <v>1.040520103033568</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03772434290609</v>
+        <v>1.053413899086034</v>
       </c>
       <c r="J5">
-        <v>1.034679478439721</v>
+        <v>1.02822935452985</v>
       </c>
       <c r="K5">
-        <v>1.044079306408948</v>
+        <v>1.041711767982325</v>
       </c>
       <c r="L5">
-        <v>1.053801795076136</v>
+        <v>1.042013998949084</v>
       </c>
       <c r="M5">
-        <v>1.058297656851525</v>
+        <v>1.049939923950668</v>
       </c>
       <c r="N5">
-        <v>1.015576491213385</v>
+        <v>1.013368823330943</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030256458302288</v>
+        <v>1.009692301542658</v>
       </c>
       <c r="D6">
-        <v>1.041691790496758</v>
+        <v>1.032340420927319</v>
       </c>
       <c r="E6">
-        <v>1.051446701218169</v>
+        <v>1.032673800117406</v>
       </c>
       <c r="F6">
-        <v>1.055951734701026</v>
+        <v>1.040683679671615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037731787809563</v>
+        <v>1.053464280041132</v>
       </c>
       <c r="J6">
-        <v>1.034701811073503</v>
+        <v>1.028327375680408</v>
       </c>
       <c r="K6">
-        <v>1.044101328773494</v>
+        <v>1.041812230856959</v>
       </c>
       <c r="L6">
-        <v>1.053832718127972</v>
+        <v>1.042142000389563</v>
       </c>
       <c r="M6">
-        <v>1.058327046418802</v>
+        <v>1.050066004244737</v>
       </c>
       <c r="N6">
-        <v>1.01558389161703</v>
+        <v>1.013401413259177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029989682384845</v>
+        <v>1.008467373808297</v>
       </c>
       <c r="D7">
-        <v>1.041480347960528</v>
+        <v>1.031387773502146</v>
       </c>
       <c r="E7">
-        <v>1.05117461149747</v>
+        <v>1.031529845217522</v>
       </c>
       <c r="F7">
-        <v>1.055690459515598</v>
+        <v>1.039555611540066</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037680461708327</v>
+        <v>1.053115580778346</v>
       </c>
       <c r="J7">
-        <v>1.034548226650793</v>
+        <v>1.027650923250514</v>
       </c>
       <c r="K7">
-        <v>1.043949844912812</v>
+        <v>1.041118698924603</v>
       </c>
       <c r="L7">
-        <v>1.053620117239686</v>
+        <v>1.041259182893138</v>
       </c>
       <c r="M7">
-        <v>1.058124951265307</v>
+        <v>1.049196121607129</v>
       </c>
       <c r="N7">
-        <v>1.015532996416103</v>
+        <v>1.013176503535159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028875398144239</v>
+        <v>1.003246894860833</v>
       </c>
       <c r="D8">
-        <v>1.040596598824161</v>
+        <v>1.027328388374389</v>
       </c>
       <c r="E8">
-        <v>1.050039430593835</v>
+        <v>1.026671011194523</v>
       </c>
       <c r="F8">
-        <v>1.054599529281014</v>
+        <v>1.034756648795518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037462606047963</v>
+        <v>1.051600706438878</v>
       </c>
       <c r="J8">
-        <v>1.033905753479453</v>
+        <v>1.024761329024221</v>
       </c>
       <c r="K8">
-        <v>1.043315333185388</v>
+        <v>1.038150478517629</v>
       </c>
       <c r="L8">
-        <v>1.052732284431967</v>
+        <v>1.037501430784518</v>
       </c>
       <c r="M8">
-        <v>1.057280064559352</v>
+        <v>1.045485533826788</v>
       </c>
       <c r="N8">
-        <v>1.015320050761297</v>
+        <v>1.012215675244503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026914982427612</v>
+        <v>0.9936423597915819</v>
       </c>
       <c r="D9">
-        <v>1.039039610680459</v>
+        <v>1.019865987747104</v>
       </c>
       <c r="E9">
-        <v>1.04804716932541</v>
+        <v>1.017797792880538</v>
       </c>
       <c r="F9">
-        <v>1.052681656573718</v>
+        <v>1.025963885136397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037066254795009</v>
+        <v>1.048706749751676</v>
       </c>
       <c r="J9">
-        <v>1.032771769349525</v>
+        <v>1.0194216376723</v>
       </c>
       <c r="K9">
-        <v>1.042192304635835</v>
+        <v>1.032644770794098</v>
       </c>
       <c r="L9">
-        <v>1.051170942098223</v>
+        <v>1.030608565221806</v>
       </c>
       <c r="M9">
-        <v>1.05579075996786</v>
+        <v>1.038649307372521</v>
       </c>
       <c r="N9">
-        <v>1.014944042010978</v>
+        <v>1.010439955710685</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025610206293133</v>
+        <v>0.9869398757121313</v>
       </c>
       <c r="D10">
-        <v>1.038001918925971</v>
+        <v>1.014665801935694</v>
       </c>
       <c r="E10">
-        <v>1.046724530486361</v>
+        <v>1.011652914801249</v>
       </c>
       <c r="F10">
-        <v>1.051406201157186</v>
+        <v>1.019855348353971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036793692742658</v>
+        <v>1.046618040764497</v>
       </c>
       <c r="J10">
-        <v>1.032014596685644</v>
+        <v>1.01568141701377</v>
       </c>
       <c r="K10">
-        <v>1.041440380095267</v>
+        <v>1.028775215118486</v>
       </c>
       <c r="L10">
-        <v>1.050132244151938</v>
+        <v>1.025814912160292</v>
       </c>
       <c r="M10">
-        <v>1.054797643411545</v>
+        <v>1.033875129483762</v>
       </c>
       <c r="N10">
-        <v>1.014692875987841</v>
+        <v>1.009196119884705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02504575594942</v>
+        <v>0.9839601373298428</v>
       </c>
       <c r="D11">
-        <v>1.037552680159951</v>
+        <v>1.012356490951542</v>
       </c>
       <c r="E11">
-        <v>1.046153148828079</v>
+        <v>1.008932914754897</v>
       </c>
       <c r="F11">
-        <v>1.050854679572125</v>
+        <v>1.017146866200087</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036673705650743</v>
+        <v>1.045673769407064</v>
       </c>
       <c r="J11">
-        <v>1.031686466581431</v>
+        <v>1.014015759672257</v>
       </c>
       <c r="K11">
-        <v>1.041114037199408</v>
+        <v>1.02704908439519</v>
       </c>
       <c r="L11">
-        <v>1.049683016612916</v>
+        <v>1.023688312947495</v>
       </c>
       <c r="M11">
-        <v>1.054367574024509</v>
+        <v>1.031752503786178</v>
       </c>
       <c r="N11">
-        <v>1.014584006511253</v>
+        <v>1.008642214542765</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024836174455366</v>
+        <v>0.9828410930618088</v>
       </c>
       <c r="D12">
-        <v>1.037385827951234</v>
+        <v>1.011489679137416</v>
       </c>
       <c r="E12">
-        <v>1.045941113834292</v>
+        <v>1.007913252021538</v>
       </c>
       <c r="F12">
-        <v>1.05064993579003</v>
+        <v>1.016130836916169</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036628842561584</v>
+        <v>1.045316852763181</v>
       </c>
       <c r="J12">
-        <v>1.031564545147692</v>
+        <v>1.013389829979737</v>
       </c>
       <c r="K12">
-        <v>1.040992706887443</v>
+        <v>1.026400016584942</v>
       </c>
       <c r="L12">
-        <v>1.049516235486751</v>
+        <v>1.022890400868829</v>
       </c>
       <c r="M12">
-        <v>1.054207822151726</v>
+        <v>1.03095538606507</v>
       </c>
       <c r="N12">
-        <v>1.014543550990046</v>
+        <v>1.008434070244341</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024881126731874</v>
+        <v>0.9830816954938532</v>
       </c>
       <c r="D13">
-        <v>1.037421617606213</v>
+        <v>1.011676028199072</v>
       </c>
       <c r="E13">
-        <v>1.045986586908371</v>
+        <v>1.008132402781435</v>
       </c>
       <c r="F13">
-        <v>1.050693848752234</v>
+        <v>1.016349237656817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036638479161997</v>
+        <v>1.045393695012243</v>
       </c>
       <c r="J13">
-        <v>1.031590699469002</v>
+        <v>1.013524426268811</v>
       </c>
       <c r="K13">
-        <v>1.041018737699325</v>
+        <v>1.026539606716129</v>
       </c>
       <c r="L13">
-        <v>1.049552006870039</v>
+        <v>1.02306192349873</v>
       </c>
       <c r="M13">
-        <v>1.054242089669854</v>
+        <v>1.03112676934299</v>
       </c>
       <c r="N13">
-        <v>1.01455222957893</v>
+        <v>1.008478828114613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025028430227438</v>
+        <v>0.9838678899555887</v>
       </c>
       <c r="D14">
-        <v>1.037538887786729</v>
+        <v>1.01228502650887</v>
       </c>
       <c r="E14">
-        <v>1.046135617826332</v>
+        <v>1.008848822126699</v>
       </c>
       <c r="F14">
-        <v>1.050837753012364</v>
+        <v>1.017063087135517</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036670003257623</v>
+        <v>1.045644393592506</v>
       </c>
       <c r="J14">
-        <v>1.031676389312738</v>
+        <v>1.013964169438221</v>
       </c>
       <c r="K14">
-        <v>1.041104010275608</v>
+        <v>1.026995595362538</v>
       </c>
       <c r="L14">
-        <v>1.049669228751735</v>
+        <v>1.023622522543344</v>
       </c>
       <c r="M14">
-        <v>1.054354368976903</v>
+        <v>1.03168679301861</v>
       </c>
       <c r="N14">
-        <v>1.014580662780465</v>
+        <v>1.008625058801885</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025119199481642</v>
+        <v>0.9843506505221289</v>
       </c>
       <c r="D15">
-        <v>1.037611143864949</v>
+        <v>1.012659042102268</v>
       </c>
       <c r="E15">
-        <v>1.046227467461332</v>
+        <v>1.009288981478138</v>
       </c>
       <c r="F15">
-        <v>1.050926432588613</v>
+        <v>1.017501577315356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036689387288253</v>
+        <v>1.045798033630585</v>
       </c>
       <c r="J15">
-        <v>1.031729180480294</v>
+        <v>1.014234142275182</v>
       </c>
       <c r="K15">
-        <v>1.041156534719193</v>
+        <v>1.02727548792926</v>
       </c>
       <c r="L15">
-        <v>1.049741463931124</v>
+        <v>1.023966855456124</v>
       </c>
       <c r="M15">
-        <v>1.05442354735391</v>
+        <v>1.032030680747108</v>
       </c>
       <c r="N15">
-        <v>1.014598179233722</v>
+        <v>1.008714835400223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025647678213917</v>
+        <v>0.9871359483592748</v>
       </c>
       <c r="D16">
-        <v>1.038031735440512</v>
+        <v>1.0148178180904</v>
       </c>
       <c r="E16">
-        <v>1.046762479375989</v>
+        <v>1.011832147815944</v>
       </c>
       <c r="F16">
-        <v>1.051442819978722</v>
+        <v>1.020033727169792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036801614540814</v>
+        <v>1.046679853834825</v>
       </c>
       <c r="J16">
-        <v>1.032036368024536</v>
+        <v>1.015790964234542</v>
       </c>
       <c r="K16">
-        <v>1.04146202261434</v>
+        <v>1.028888681233045</v>
       </c>
       <c r="L16">
-        <v>1.050162069317522</v>
+        <v>1.025954945497971</v>
       </c>
       <c r="M16">
-        <v>1.054826184920082</v>
+        <v>1.034014804189653</v>
       </c>
       <c r="N16">
-        <v>1.014700098952691</v>
+        <v>1.00923254982784</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025979320877177</v>
+        <v>0.98886193299809</v>
       </c>
       <c r="D17">
-        <v>1.038295586390959</v>
+        <v>1.01615628151593</v>
       </c>
       <c r="E17">
-        <v>1.047098435498968</v>
+        <v>1.013411252667661</v>
       </c>
       <c r="F17">
-        <v>1.051766940670181</v>
+        <v>1.021604784848337</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036871485975149</v>
+        <v>1.047222200800728</v>
       </c>
       <c r="J17">
-        <v>1.03222898736589</v>
+        <v>1.016754963412388</v>
       </c>
       <c r="K17">
-        <v>1.041653446018253</v>
+        <v>1.02988684101017</v>
       </c>
       <c r="L17">
-        <v>1.050426048418421</v>
+        <v>1.027188150388291</v>
       </c>
       <c r="M17">
-        <v>1.055078738321232</v>
+        <v>1.035244319145668</v>
       </c>
       <c r="N17">
-        <v>1.014764000559165</v>
+        <v>1.009553130466129</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026172813119937</v>
+        <v>0.9898612330401089</v>
       </c>
       <c r="D18">
-        <v>1.03844949461846</v>
+        <v>1.016931454075609</v>
       </c>
       <c r="E18">
-        <v>1.047294521194896</v>
+        <v>1.014326633966793</v>
       </c>
       <c r="F18">
-        <v>1.051956067896676</v>
+        <v>1.022515066181454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036912051062789</v>
+        <v>1.047534711143365</v>
       </c>
       <c r="J18">
-        <v>1.032341312903192</v>
+        <v>1.017312819545395</v>
       </c>
       <c r="K18">
-        <v>1.041765027152689</v>
+        <v>1.030464191380579</v>
       </c>
       <c r="L18">
-        <v>1.050580074530041</v>
+        <v>1.027902569939643</v>
       </c>
       <c r="M18">
-        <v>1.055226044158681</v>
+        <v>1.035956156993745</v>
       </c>
       <c r="N18">
-        <v>1.014801262361008</v>
+        <v>1.009738648877815</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026238797528828</v>
+        <v>0.9902007243040659</v>
       </c>
       <c r="D19">
-        <v>1.03850197472334</v>
+        <v>1.017194840913782</v>
       </c>
       <c r="E19">
-        <v>1.047361403034775</v>
+        <v>1.014637804057235</v>
       </c>
       <c r="F19">
-        <v>1.052020567737777</v>
+        <v>1.022824428739231</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036925850501645</v>
+        <v>1.047640624660255</v>
       </c>
       <c r="J19">
-        <v>1.032379608552058</v>
+        <v>1.017502291817042</v>
       </c>
       <c r="K19">
-        <v>1.041803061030312</v>
+        <v>1.030660237687221</v>
       </c>
       <c r="L19">
-        <v>1.05063260215409</v>
+        <v>1.028145349711418</v>
       </c>
       <c r="M19">
-        <v>1.055276270867556</v>
+        <v>1.036197983969771</v>
       </c>
       <c r="N19">
-        <v>1.014813965806906</v>
+        <v>1.00980165925946</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025943733504845</v>
+        <v>0.9886775246343401</v>
       </c>
       <c r="D20">
-        <v>1.038267276796148</v>
+        <v>1.016013251761831</v>
       </c>
       <c r="E20">
-        <v>1.047062377315679</v>
+        <v>1.013242420633257</v>
       </c>
       <c r="F20">
-        <v>1.05173215801182</v>
+        <v>1.021436858290109</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036864009051064</v>
+        <v>1.047164409716029</v>
       </c>
       <c r="J20">
-        <v>1.032208323821173</v>
+        <v>1.016651995583126</v>
       </c>
       <c r="K20">
-        <v>1.04163291562915</v>
+        <v>1.029780252687297</v>
       </c>
       <c r="L20">
-        <v>1.050397720614186</v>
+        <v>1.027056347218687</v>
       </c>
       <c r="M20">
-        <v>1.055051642163726</v>
+        <v>1.035112956369584</v>
       </c>
       <c r="N20">
-        <v>1.014757145648466</v>
+        <v>1.009518888024197</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024985050785953</v>
+        <v>0.9836367180091236</v>
       </c>
       <c r="D21">
-        <v>1.037504354211312</v>
+        <v>1.012105944131264</v>
       </c>
       <c r="E21">
-        <v>1.046091726355846</v>
+        <v>1.008638115765995</v>
       </c>
       <c r="F21">
-        <v>1.050795373580428</v>
+        <v>1.016853155430423</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036660728321397</v>
+        <v>1.045570741043105</v>
       </c>
       <c r="J21">
-        <v>1.031651156865151</v>
+        <v>1.013834878148394</v>
       </c>
       <c r="K21">
-        <v>1.041078902709081</v>
+        <v>1.026861538867026</v>
       </c>
       <c r="L21">
-        <v>1.049634707553853</v>
+        <v>1.023457663801183</v>
       </c>
       <c r="M21">
-        <v>1.054321305643686</v>
+        <v>1.031522122621549</v>
       </c>
       <c r="N21">
-        <v>1.014572290364819</v>
+        <v>1.008582064557507</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024382755337576</v>
+        <v>0.9803962441768822</v>
       </c>
       <c r="D22">
-        <v>1.037024762566438</v>
+        <v>1.009596810750376</v>
       </c>
       <c r="E22">
-        <v>1.045482606839394</v>
+        <v>1.005688970388941</v>
       </c>
       <c r="F22">
-        <v>1.050207051453715</v>
+        <v>1.01391322645098</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036531213939039</v>
+        <v>1.044532927100016</v>
       </c>
       <c r="J22">
-        <v>1.031300617064637</v>
+        <v>1.012021648313785</v>
       </c>
       <c r="K22">
-        <v>1.040729925287514</v>
+        <v>1.024980520476652</v>
       </c>
       <c r="L22">
-        <v>1.049155446045356</v>
+        <v>1.021148563864698</v>
       </c>
       <c r="M22">
-        <v>1.053862086197133</v>
+        <v>1.02921400817061</v>
       </c>
       <c r="N22">
-        <v>1.014455968962205</v>
+        <v>1.007979112328977</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024701998864334</v>
+        <v>0.9821210291078405</v>
       </c>
       <c r="D23">
-        <v>1.037278994238364</v>
+        <v>1.01093205406137</v>
       </c>
       <c r="E23">
-        <v>1.04580540136803</v>
+        <v>1.007257661352867</v>
       </c>
       <c r="F23">
-        <v>1.050518867882337</v>
+        <v>1.015477389812246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036600033184309</v>
+        <v>1.045086551513299</v>
       </c>
       <c r="J23">
-        <v>1.031486465957705</v>
+        <v>1.012986962310022</v>
       </c>
       <c r="K23">
-        <v>1.040914985751175</v>
+        <v>1.025982142513532</v>
       </c>
       <c r="L23">
-        <v>1.049409466097002</v>
+        <v>1.02237718782075</v>
       </c>
       <c r="M23">
-        <v>1.054105529237551</v>
+        <v>1.030442488248714</v>
       </c>
       <c r="N23">
-        <v>1.014517642056757</v>
+        <v>1.008300103899429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025959813750086</v>
+        <v>0.9887608737777666</v>
       </c>
       <c r="D24">
-        <v>1.03828006865762</v>
+        <v>1.016077897814937</v>
       </c>
       <c r="E24">
-        <v>1.047078670060783</v>
+        <v>1.013318726095961</v>
       </c>
       <c r="F24">
-        <v>1.051747874572244</v>
+        <v>1.021512755861477</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036867388137558</v>
+        <v>1.047190534846501</v>
       </c>
       <c r="J24">
-        <v>1.032217660868243</v>
+        <v>1.016698535975904</v>
       </c>
       <c r="K24">
-        <v>1.041642192653655</v>
+        <v>1.02982843035714</v>
       </c>
       <c r="L24">
-        <v>1.050410520570402</v>
+        <v>1.027115918478</v>
       </c>
       <c r="M24">
-        <v>1.055063885764388</v>
+        <v>1.035172329960181</v>
       </c>
       <c r="N24">
-        <v>1.014760243121344</v>
+        <v>1.00953436524806</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027421421142242</v>
+        <v>0.9961760739357521</v>
       </c>
       <c r="D25">
-        <v>1.039442084154535</v>
+        <v>1.021833568139877</v>
       </c>
       <c r="E25">
-        <v>1.048561248861159</v>
+        <v>1.020130625818458</v>
       </c>
       <c r="F25">
-        <v>1.05317692966236</v>
+        <v>1.028278930838874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037170192641684</v>
+        <v>1.049482353748923</v>
       </c>
       <c r="J25">
-        <v>1.033065145114089</v>
+        <v>1.020832817319832</v>
       </c>
       <c r="K25">
-        <v>1.042483211222189</v>
+        <v>1.034102143687941</v>
       </c>
       <c r="L25">
-        <v>1.051574205930246</v>
+        <v>1.03242427520711</v>
       </c>
       <c r="M25">
-        <v>1.056175831244735</v>
+        <v>1.040453559092346</v>
       </c>
       <c r="N25">
-        <v>1.015041338102859</v>
+        <v>1.010909256896998</v>
       </c>
     </row>
   </sheetData>
